--- a/Doc/DSYG_ERP_DB_new.xlsx
+++ b/Doc/DSYG_ERP_DB_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="821" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="821" firstSheet="17" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="1078">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5868,6 +5868,30 @@
   <si>
     <t>ProductId</t>
     <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>financetheme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11546,7 +11570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -21883,14 +21907,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="3.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.375" style="32" bestFit="1" customWidth="1"/>
@@ -24425,14 +24449,24 @@
       <c r="A61" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
+      <c r="B61" s="35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>1075</v>
+      </c>
       <c r="E61" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="F61" s="35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>1073</v>
+      </c>
       <c r="H61" s="35" t="s">
         <v>226</v>
       </c>
@@ -24450,21 +24484,31 @@
       </c>
       <c r="M61" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','工资','01','c','财务主题','工资',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>1076</v>
+      </c>
       <c r="E62" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
+      <c r="F62" s="35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>1074</v>
+      </c>
       <c r="H62" s="35" t="s">
         <v>226</v>
       </c>
@@ -24482,7 +24526,7 @@
       </c>
       <c r="M62" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','办公用品','02','c','财务主题','办公用品',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="63" spans="1:13">

--- a/Doc/DSYG_ERP_DB_new.xlsx
+++ b/Doc/DSYG_ERP_DB_new.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="1087">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5891,6 +5891,42 @@
   </si>
   <si>
     <t>财务主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单番号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseorder2015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21907,14 +21943,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="3.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="32" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.375" style="32" bestFit="1" customWidth="1"/>
@@ -24533,14 +24569,24 @@
       <c r="A63" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
+      <c r="B63" s="35" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>1081</v>
+      </c>
       <c r="E63" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
+      <c r="F63" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>1079</v>
+      </c>
       <c r="H63" s="35" t="s">
         <v>226</v>
       </c>
@@ -24558,21 +24604,31 @@
       </c>
       <c r="M63" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','现金','01','c','支付方式','现金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="35" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>1082</v>
+      </c>
       <c r="E64" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
+      <c r="F64" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>1080</v>
+      </c>
       <c r="H64" s="35" t="s">
         <v>226</v>
       </c>
@@ -24590,21 +24646,31 @@
       </c>
       <c r="M64" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','支票','02','c','支付方式','支票',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="35" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>1085</v>
+      </c>
       <c r="E65" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
+      <c r="F65" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>1084</v>
+      </c>
       <c r="H65" s="35" t="s">
         <v>226</v>
       </c>
@@ -24622,7 +24688,7 @@
       </c>
       <c r="M65" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('purchaseorder2015','采购单番号','1','c','采购单番号','采购单番号',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="66" spans="1:13">

--- a/Doc/DSYG_ERP_DB_new.xlsx
+++ b/Doc/DSYG_ERP_DB_new.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="1090">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5927,6 +5927,17 @@
   </si>
   <si>
     <t>purchaseorder2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>出差费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21941,10 +21952,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -24435,7 +24446,7 @@
         <v>232</v>
       </c>
       <c r="M59" s="31" t="str">
-        <f t="shared" ref="M59:M68" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
+        <f t="shared" ref="M59:M69" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','12','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
@@ -24570,22 +24581,22 @@
         <v>405</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>229</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="H63" s="35" t="s">
         <v>226</v>
@@ -24603,8 +24614,8 @@
         <v>232</v>
       </c>
       <c r="M63" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','现金','01','c','支付方式','现金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" ref="M63" si="4">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B63,"','",C63,"','",D63,"','",E63,"','",F63,"','",G63,"',",H63,",'",I63,"','",J63,"','",K63,"','",L63,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','出差费','03','c','财务主题','出差费',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -24615,10 +24626,10 @@
         <v>1078</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E64" s="35" t="s">
         <v>229</v>
@@ -24627,7 +24638,7 @@
         <v>1083</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H64" s="35" t="s">
         <v>226</v>
@@ -24646,7 +24657,7 @@
       </c>
       <c r="M64" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','支票','02','c','支付方式','支票',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','现金','01','c','支付方式','现金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -24654,22 +24665,22 @@
         <v>407</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E65" s="35" t="s">
         <v>229</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="H65" s="35" t="s">
         <v>226</v>
@@ -24688,21 +24699,31 @@
       </c>
       <c r="M65" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('purchaseorder2015','采购单番号','1','c','采购单番号','采购单番号',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','支票','02','c','支付方式','支票',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="B66" s="35" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>1085</v>
+      </c>
       <c r="E66" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
+      <c r="F66" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>1084</v>
+      </c>
       <c r="H66" s="35" t="s">
         <v>226</v>
       </c>
@@ -24720,7 +24741,7 @@
       </c>
       <c r="M66" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('purchaseorder2015','采购单番号','1','c','采购单番号','采购单番号',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -24783,6 +24804,38 @@
         <v>232</v>
       </c>
       <c r="M68" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K69" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L69" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M69" s="31" t="str">
         <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>

--- a/Doc/DSYG_ERP_DB_new.xlsx
+++ b/Doc/DSYG_ERP_DB_new.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="1093">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5938,6 +5938,18 @@
   </si>
   <si>
     <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21955,7 +21967,7 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -24748,14 +24760,24 @@
       <c r="A67" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
+      <c r="B67" s="35" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>1092</v>
+      </c>
       <c r="E67" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="F67" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>1091</v>
+      </c>
       <c r="H67" s="35" t="s">
         <v>226</v>
       </c>
@@ -24773,7 +24795,7 @@
       </c>
       <c r="M67" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('rate','税率','0.17','c','税率','税率',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="68" spans="1:13">

--- a/Doc/DSYG_ERP_DB_new.xlsx
+++ b/Doc/DSYG_ERP_DB_new.xlsx
@@ -1,48 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="821" firstSheet="17" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
     <sheet name="ETB_Price" sheetId="29" r:id="rId2"/>
     <sheet name="ETB_Quantity" sheetId="28" r:id="rId3"/>
     <sheet name="ETB_Finance" sheetId="27" r:id="rId4"/>
-    <sheet name="ETB_Assets" sheetId="25" r:id="rId5"/>
-    <sheet name="ETB_Personal" sheetId="26" r:id="rId6"/>
-    <sheet name="ETB_Document" sheetId="24" r:id="rId7"/>
-    <sheet name="ETB_Attendance" sheetId="23" r:id="rId8"/>
-    <sheet name="ETB_Purchase" sheetId="11" r:id="rId9"/>
-    <sheet name="ETB_PurchaseItem" sheetId="19" r:id="rId10"/>
-    <sheet name="ETB_Warehouse" sheetId="30" r:id="rId11"/>
-    <sheet name="ETB_WarehouseRPT" sheetId="18" r:id="rId12"/>
-    <sheet name="ETB_Sales" sheetId="20" r:id="rId13"/>
-    <sheet name="ETB_SalesItem" sheetId="21" r:id="rId14"/>
-    <sheet name="ETB_Supplier" sheetId="15" r:id="rId15"/>
-    <sheet name="ETB_Customer" sheetId="17" r:id="rId16"/>
-    <sheet name="tbrole" sheetId="12" r:id="rId17"/>
-    <sheet name="tbroleres" sheetId="13" r:id="rId18"/>
-    <sheet name="tbresource" sheetId="14" r:id="rId19"/>
-    <sheet name="tbuser" sheetId="16" r:id="rId20"/>
-    <sheet name="tbproduct" sheetId="31" r:id="rId21"/>
-    <sheet name="tbproduct01" sheetId="1" r:id="rId22"/>
-    <sheet name="tbwarehouse01" sheetId="3" r:id="rId23"/>
-    <sheet name="tbdict01" sheetId="4" r:id="rId24"/>
-    <sheet name="tbnews" sheetId="5" r:id="rId25"/>
-    <sheet name="tbqa" sheetId="7" r:id="rId26"/>
-    <sheet name="tbrecruit" sheetId="9" r:id="rId27"/>
-    <sheet name="tbcase" sheetId="10" r:id="rId28"/>
-    <sheet name="Dict01_data_sql" sheetId="8" r:id="rId29"/>
+    <sheet name="ETB_SalesReport" sheetId="32" r:id="rId5"/>
+    <sheet name="ETB_Assets" sheetId="25" r:id="rId6"/>
+    <sheet name="ETB_Personal" sheetId="26" r:id="rId7"/>
+    <sheet name="ETB_Document" sheetId="24" r:id="rId8"/>
+    <sheet name="ETB_Attendance" sheetId="23" r:id="rId9"/>
+    <sheet name="ETB_Purchase" sheetId="11" r:id="rId10"/>
+    <sheet name="ETB_PurchaseItem" sheetId="19" r:id="rId11"/>
+    <sheet name="ETB_Warehouse" sheetId="30" r:id="rId12"/>
+    <sheet name="ETB_WarehouseRPT" sheetId="18" r:id="rId13"/>
+    <sheet name="ETB_Sales" sheetId="20" r:id="rId14"/>
+    <sheet name="ETB_SalesItem" sheetId="21" r:id="rId15"/>
+    <sheet name="ETB_Supplier" sheetId="15" r:id="rId16"/>
+    <sheet name="ETB_Customer" sheetId="17" r:id="rId17"/>
+    <sheet name="tbrole" sheetId="12" r:id="rId18"/>
+    <sheet name="tbroleres" sheetId="13" r:id="rId19"/>
+    <sheet name="tbresource" sheetId="14" r:id="rId20"/>
+    <sheet name="tbuser" sheetId="16" r:id="rId21"/>
+    <sheet name="tbproduct" sheetId="31" r:id="rId22"/>
+    <sheet name="tbproduct01" sheetId="1" r:id="rId23"/>
+    <sheet name="tbwarehouse01" sheetId="3" r:id="rId24"/>
+    <sheet name="tbdict01" sheetId="4" r:id="rId25"/>
+    <sheet name="tbnews" sheetId="5" r:id="rId26"/>
+    <sheet name="tbqa" sheetId="7" r:id="rId27"/>
+    <sheet name="tbrecruit" sheetId="9" r:id="rId28"/>
+    <sheet name="tbcase" sheetId="10" r:id="rId29"/>
+    <sheet name="Dict01_data_sql" sheetId="8" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="1109">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5952,11 +5953,75 @@
     <t>0.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>销售报告信息管理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETB_SalesReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesReportName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesReportNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售报告编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售报告名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportPath01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportPath02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportPath03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportPath04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportPath05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售报告1文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售报告2文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售报告3文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售报告4文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售报告5文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -6550,7 +6615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6624,6 +6689,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6658,6 +6724,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6833,11 +6900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7422,7 +7489,843 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="40">
+        <v>128</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="4">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="40">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4">
+        <v>128</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>937</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>948</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8">
+        <v>16</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="8">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8">
+        <v>18</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" s="27">
+        <v>5</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="8">
+        <v>19</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>500</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8">
+        <v>20</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8">
+        <v>21</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8">
+        <v>22</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="8">
+        <v>23</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8">
+        <v>24</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="8">
+        <v>25</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="8">
+        <v>26</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="8">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="8">
+        <v>28</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="8">
+        <v>29</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="8">
+        <v>30</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="4">
+        <v>50</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="8">
+        <v>31</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="4">
+        <v>200</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="8">
+        <v>32</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="8">
+        <v>33</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="8">
+        <v>34</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="8">
+        <v>35</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8181,8 +9084,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -9485,8 +10388,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M62"/>
   <sheetViews>
     <sheetView topLeftCell="B28" workbookViewId="0">
@@ -10803,8 +11706,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11625,8 +12528,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12367,8 +13270,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -13398,8 +14301,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14429,8 +15332,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14695,8 +15598,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14805,8 +15708,604 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="41" t="s">
+        <v>734</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>823</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="41" t="s">
+        <v>753</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="55" t="s">
+        <v>742</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="E9" s="27">
+        <v>5</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E24" s="4">
+        <v>50</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E25" s="4">
+        <v>200</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8">
+        <v>25</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15057,604 +16556,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>889</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B4" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.25" thickTop="1">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="8">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="8">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>823</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="41" t="s">
-        <v>753</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="55" t="s">
-        <v>742</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="8">
-        <v>5</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>721</v>
-      </c>
-      <c r="E9" s="27">
-        <v>5</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="8">
-        <v>8</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="8">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="8">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="8">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="8">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>725</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="8">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E17" s="4">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="8">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="8">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="8">
-        <v>16</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="8">
-        <v>17</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E21" s="4">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="8">
-        <v>18</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E22" s="4">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="8">
-        <v>19</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E23" s="4">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="8">
-        <v>20</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E24" s="4">
-        <v>50</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="8">
-        <v>21</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E25" s="4">
-        <v>200</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="8">
-        <v>22</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="8">
-        <v>23</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="8">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="8">
-        <v>25</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15961,12 +16864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17491,11 +18394,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -19082,8 +19985,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19863,8 +20766,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20283,8 +21186,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20753,8 +21656,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21180,8 +22083,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21534,8 +22437,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -21962,2915 +22865,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="3.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="22.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.875" style="31" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="34" customFormat="1">
-      <c r="A2" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M2" s="31" t="str">
-        <f>CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"',",H2,",'",I2,"','",J2,"','",K2,"','",L2,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','電子線','01','c','Electronic Wire','电子线',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="34" customFormat="1">
-      <c r="A3" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M3" s="31" t="str">
-        <f t="shared" ref="M3:M58" si="0">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",'",I3,"','",J3,"','",K3,"','",L3,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','熱収缩套管','02','c','Heat-Shrink-Tube','热收缩套管',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="34" customFormat="1">
-      <c r="A4" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M4" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','柔軟扁平電纜','03','c','Flexible Flat Cable','柔软扁平电缆',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="34" customFormat="1">
-      <c r="A5" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M5" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','漆包線','04','c','Magnesium Alloy','漆包线',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="34" customFormat="1">
-      <c r="A6" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M6" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','線束加工','05','c','Wiring Harness','线束加工',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="34" customFormat="1">
-      <c r="A7" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M7" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','柔軟印刷電路板','06','c','Flexible Printed Circuit Board','柔软印刷电路板',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="34" customFormat="1">
-      <c r="A8" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M8" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','其他','07','c','其他','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M9" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','80℃～105℃','01','c','耐温','电线耐温80℃～105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M10" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','105℃～150℃','02','c','耐温','电线耐温105℃～150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M11" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','150℃～200℃及以上','03','c','耐温','电线耐温150℃～200℃及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M12" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','30V～100V','001','c','耐压','耐压30V～100V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','100V～600V','002','c','耐压','耐压100V～600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M14" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','1KV及以上','003','c','耐压','耐压1KV及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M15" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PVC','01','c','材质','材质PVC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PE','02','c','材质','材质PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M17" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','其他','03','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M18" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item04','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M19" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item04','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="34" customFormat="1">
-      <c r="A20" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="M20" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','80℃～105℃','01','c','耐温','套管耐温80℃～105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="34" customFormat="1">
-      <c r="A21" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="M21" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','105℃～150℃','02','c','耐温','套管耐温105℃～150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="34" customFormat="1">
-      <c r="A22" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="M22" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','150℃～200℃及以上','03','c','耐温','套管耐温150℃～200℃及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="34" customFormat="1">
-      <c r="A23" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M23" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','30V～100V','001','c','耐压','耐压30V～100V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="34" customFormat="1">
-      <c r="A24" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M24" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','100V～600V','002','c','耐压','耐压100V～600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="34" customFormat="1">
-      <c r="A25" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M25" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','1KV及以上','003','c','耐压','耐压1KV及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M26" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item03','双层绝缘','01','c','绝缘','绝缘双层绝缘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M27" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item03','单层绝缘','02','c','绝缘','绝缘单层绝缘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M28" s="31" t="str">
-        <f t="shared" ref="M28" si="1">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B28,"','",C28,"','",D28,"','",E28,"','",F28,"','",G28,"',",H28,",'",I28,"','",J28,"','",K28,"','",L28,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','1.5:1','01','c','收缩比','收缩比1.5:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M29" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2:1','02','c','收缩比','收缩比2:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K30" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M30" s="31" t="str">
-        <f t="shared" ref="M30" si="2">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B30,"','",C30,"','",D30,"','",E30,"','",F30,"','",G30,"',",H30,",'",I30,"','",J30,"','",K30,"','",L30,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2.4:1','03','c','收缩比','收缩比2.4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M31" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','3:1','04','c','收缩比','收缩比3:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M32" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','4:1','05','c','收缩比','收缩比4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L33" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M33" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','PE','01','c','材质','PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J34" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K34" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L34" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M34" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','其他','02','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M35" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L36" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M36" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K37" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L37" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M37" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','日本','001','c','产地','产地日本',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M38" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','马来西亚','002','c','产地','产地马来西亚',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L39" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M39" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','苏州','003','c','产地','产地苏州',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L40" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M40" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','米','002','c','单位','米',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L41" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M41" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','卷','003','c','单位','卷',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J42" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L42" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M42" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','箱','004','c','单位','箱',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="H43" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J43" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L43" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M43" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','盘','005','c','单位','盘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J44" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L44" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M44" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','套','006','c','单位','套',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="H45" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J45" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M45" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','PSC','007','c','单位','PSC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J46" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L46" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M46" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','根','008','c','单位','根',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="H47" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J47" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L47" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M47" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','其它','009','c','单位','其它',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K48" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L48" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M48" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','红','01','c','颜色','红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I49" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K49" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L49" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M49" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','橙','02','c','颜色','橙',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I50" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K50" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L50" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M50" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黄','03','c','颜色','黄',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I51" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J51" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K51" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M51" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','绿','04','c','颜色','绿',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I52" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J52" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K52" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L52" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M52" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','蓝','05','c','颜色','蓝',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I53" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J53" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K53" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L53" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M53" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','靛','06','c','颜色','靛',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>364</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I54" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M54" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','07','c','颜色','紫',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I55" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J55" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K55" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L55" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M55" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','灰','08','c','颜色','灰',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I56" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K56" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L56" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M56" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','白','09','c','颜色','白',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I57" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K57" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L57" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M57" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黑','10','c','颜色','黑',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I58" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J58" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L58" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M58" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','透明','11','c','颜色','透明',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I59" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J59" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K59" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L59" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M59" s="31" t="str">
-        <f t="shared" ref="M59:M69" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','12','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="H60" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I60" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J60" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K60" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L60" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M60" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','棕','13','c','颜色','棕',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H61" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I61" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J61" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K61" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L61" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M61" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','工资','01','c','财务主题','工资',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H62" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I62" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J62" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K62" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L62" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M62" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','办公用品','02','c','财务主题','办公用品',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H63" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I63" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J63" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K63" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L63" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M63" s="31" t="str">
-        <f t="shared" ref="M63" si="4">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B63,"','",C63,"','",D63,"','",E63,"','",F63,"','",G63,"',",H63,",'",I63,"','",J63,"','",K63,"','",L63,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','出差费','03','c','财务主题','出差费',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H64" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I64" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J64" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K64" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L64" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M64" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','现金','01','c','支付方式','现金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H65" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I65" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J65" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K65" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L65" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M65" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','支票','02','c','支付方式','支票',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H66" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I66" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J66" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K66" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L66" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M66" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('purchaseorder2015','采购单番号','1','c','采购单番号','采购单番号',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H67" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I67" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J67" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K67" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L67" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M67" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('rate','税率','0.17','c','税率','税率',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I68" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J68" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K68" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L68" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M68" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="35" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I69" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J69" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K69" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L69" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="M69" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25443,8 +23439,2915 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="22.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.875" style="31" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="34" customFormat="1">
+      <c r="A2" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M2" s="31" t="str">
+        <f>CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"',",H2,",'",I2,"','",J2,"','",K2,"','",L2,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','電子線','01','c','Electronic Wire','电子线',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="34" customFormat="1">
+      <c r="A3" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" s="31" t="str">
+        <f t="shared" ref="M3:M58" si="0">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",'",I3,"','",J3,"','",K3,"','",L3,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','熱収缩套管','02','c','Heat-Shrink-Tube','热收缩套管',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="34" customFormat="1">
+      <c r="A4" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','柔軟扁平電纜','03','c','Flexible Flat Cable','柔软扁平电缆',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="34" customFormat="1">
+      <c r="A5" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','漆包線','04','c','Magnesium Alloy','漆包线',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="34" customFormat="1">
+      <c r="A6" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','線束加工','05','c','Wiring Harness','线束加工',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="34" customFormat="1">
+      <c r="A7" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M7" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','柔軟印刷電路板','06','c','Flexible Printed Circuit Board','柔软印刷电路板',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="34" customFormat="1">
+      <c r="A8" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','其他','07','c','其他','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','80℃～105℃','01','c','耐温','电线耐温80℃～105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','105℃～150℃','02','c','耐温','电线耐温105℃～150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','150℃～200℃及以上','03','c','耐温','电线耐温150℃～200℃及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M12" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','30V～100V','001','c','耐压','耐压30V～100V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','100V～600V','002','c','耐压','耐压100V～600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','1KV及以上','003','c','耐压','耐压1KV及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PVC','01','c','材质','材质PVC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PE','02','c','材质','材质PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','其他','03','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item04','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M19" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item04','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="34" customFormat="1">
+      <c r="A20" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="M20" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','80℃～105℃','01','c','耐温','套管耐温80℃～105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="34" customFormat="1">
+      <c r="A21" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','105℃～150℃','02','c','耐温','套管耐温105℃～150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="34" customFormat="1">
+      <c r="A22" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','150℃～200℃及以上','03','c','耐温','套管耐温150℃～200℃及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="34" customFormat="1">
+      <c r="A23" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','30V～100V','001','c','耐压','耐压30V～100V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="34" customFormat="1">
+      <c r="A24" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','100V～600V','002','c','耐压','耐压100V～600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="34" customFormat="1">
+      <c r="A25" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','1KV及以上','003','c','耐压','耐压1KV及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item03','双层绝缘','01','c','绝缘','绝缘双层绝缘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item03','单层绝缘','02','c','绝缘','绝缘单层绝缘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" s="31" t="str">
+        <f t="shared" ref="M28" si="1">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B28,"','",C28,"','",D28,"','",E28,"','",F28,"','",G28,"',",H28,",'",I28,"','",J28,"','",K28,"','",L28,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','1.5:1','01','c','收缩比','收缩比1.5:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2:1','02','c','收缩比','收缩比2:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" s="31" t="str">
+        <f t="shared" ref="M30" si="2">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B30,"','",C30,"','",D30,"','",E30,"','",F30,"','",G30,"',",H30,",'",I30,"','",J30,"','",K30,"','",L30,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2.4:1','03','c','收缩比','收缩比2.4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','3:1','04','c','收缩比','收缩比3:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','4:1','05','c','收缩比','收缩比4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','PE','01','c','材质','PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M34" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','其他','02','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M37" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','日本','001','c','产地','产地日本',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','马来西亚','002','c','产地','产地马来西亚',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L39" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M39" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','苏州','003','c','产地','产地苏州',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M40" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','米','002','c','单位','米',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M41" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','卷','003','c','单位','卷',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M42" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','箱','004','c','单位','箱',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M43" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','盘','005','c','单位','盘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M44" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','套','006','c','单位','套',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M45" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','PSC','007','c','单位','PSC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M46" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','根','008','c','单位','根',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M47" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','其它','009','c','单位','其它',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M48" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','红','01','c','颜色','红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M49" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','橙','02','c','颜色','橙',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L50" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M50" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黄','03','c','颜色','黄',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L51" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M51" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','绿','04','c','颜色','绿',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J52" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L52" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M52" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','蓝','05','c','颜色','蓝',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L53" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M53" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','靛','06','c','颜色','靛',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L54" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M54" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','07','c','颜色','紫',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J55" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L55" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M55" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','灰','08','c','颜色','灰',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L56" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M56" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','白','09','c','颜色','白',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L57" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M57" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黑','10','c','颜色','黑',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J58" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L58" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M58" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','透明','11','c','颜色','透明',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J59" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L59" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M59" s="31" t="str">
+        <f t="shared" ref="M59:M69" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','12','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J60" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L60" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M60" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','棕','13','c','颜色','棕',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K61" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L61" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M61" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','工资','01','c','财务主题','工资',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J62" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L62" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M62" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','办公用品','02','c','财务主题','办公用品',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J63" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L63" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M63" s="31" t="str">
+        <f t="shared" ref="M63" si="4">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B63,"','",C63,"','",D63,"','",E63,"','",F63,"','",G63,"',",H63,",'",I63,"','",J63,"','",K63,"','",L63,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','出差费','03','c','财务主题','出差费',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I64" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K64" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L64" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M64" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','现金','01','c','支付方式','现金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I65" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J65" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K65" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L65" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M65" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','支票','02','c','支付方式','支票',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L66" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M66" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('purchaseorder2015','采购单番号','1','c','采购单番号','采购单番号',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I67" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L67" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M67" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('rate','税率','0.17','c','税率','税率',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J68" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L68" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M68" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K69" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L69" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M69" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26218,11 +27121,729 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="41" t="s">
+        <v>753</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" s="4">
+        <v>128</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>7</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="E12" s="27">
+        <v>5</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4">
+        <v>500</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>10</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8">
+        <v>11</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8">
+        <v>13</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8">
+        <v>14</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8">
+        <v>16</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="8">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8">
+        <v>18</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="8">
+        <v>19</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8">
+        <v>20</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8">
+        <v>21</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8">
+        <v>22</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="8">
+        <v>23</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8">
+        <v>24</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="4">
+        <v>50</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="8">
+        <v>25</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="4">
+        <v>200</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="8">
+        <v>26</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="8">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="8">
+        <v>28</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="8">
+        <v>29</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26835,11 +28456,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
@@ -27589,11 +29210,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -28187,8 +29808,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28806,840 +30427,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.25" thickTop="1">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="8">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="8">
-        <v>32</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="4">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>929</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="8">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="40">
-        <v>128</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="8">
-        <v>8</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>933</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="40">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="8">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>934</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="4">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="8">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>935</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="8">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="4">
-        <v>128</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="8">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>937</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="4">
-        <v>64</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="8">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="4">
-        <v>32</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="8">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="8">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>947</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="8">
-        <v>15</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>948</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="8">
-        <v>16</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>949</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="8">
-        <v>17</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>950</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="8">
-        <v>18</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>721</v>
-      </c>
-      <c r="E23" s="27">
-        <v>5</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="8">
-        <v>19</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="4">
-        <v>500</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="8">
-        <v>20</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="8">
-        <v>21</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="8">
-        <v>22</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="8">
-        <v>23</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="4">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="8">
-        <v>24</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="4">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="8">
-        <v>25</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="4">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="8">
-        <v>26</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="4">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="8">
-        <v>27</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="4">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="8">
-        <v>28</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="4">
-        <v>10</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="8">
-        <v>29</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="8">
-        <v>30</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="4">
-        <v>50</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="8">
-        <v>31</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="4">
-        <v>200</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="8">
-        <v>32</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="4">
-        <v>5</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="8">
-        <v>33</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="8">
-        <v>34</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="4">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="8">
-        <v>35</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Doc/DSYG_ERP_DB_new.xlsx
+++ b/Doc/DSYG_ERP_DB_new.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="821" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="821" firstSheet="17" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
@@ -38,12 +38,12 @@
     <sheet name="tbcase" sheetId="10" r:id="rId29"/>
     <sheet name="Dict01_data_sql" sheetId="8" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="1112">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6017,11 +6017,22 @@
     <t>销售报告5文件路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -6615,7 +6626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6689,7 +6700,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6724,7 +6734,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6900,7 +6909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7489,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -8325,7 +8334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9085,7 +9094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -10389,7 +10398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M62"/>
   <sheetViews>
     <sheetView topLeftCell="B28" workbookViewId="0">
@@ -11707,7 +11716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12529,7 +12538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13271,7 +13280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -14302,7 +14311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15333,7 +15342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15599,7 +15608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15709,7 +15718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16305,7 +16314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16557,7 +16566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16865,7 +16874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18395,7 +18404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M68"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -19986,7 +19995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20767,7 +20776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21187,7 +21196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21657,7 +21666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22084,7 +22093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22438,7 +22447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -22866,7 +22875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23440,11 +23449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -25935,7 +25944,7 @@
         <v>232</v>
       </c>
       <c r="M59" s="31" t="str">
-        <f t="shared" ref="M59:M69" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
+        <f t="shared" ref="M59:M70" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','12','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
@@ -26103,7 +26112,7 @@
         <v>232</v>
       </c>
       <c r="M63" s="31" t="str">
-        <f t="shared" ref="M63" si="4">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B63,"','",C63,"','",D63,"','",E63,"','",F63,"','",G63,"',",H63,",'",I63,"','",J63,"','",K63,"','",L63,"');")</f>
+        <f t="shared" ref="M63:M64" si="4">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B63,"','",C63,"','",D63,"','",E63,"','",F63,"','",G63,"',",H63,",'",I63,"','",J63,"','",K63,"','",L63,"');")</f>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','出差费','03','c','财务主题','出差费',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
@@ -26112,22 +26121,22 @@
         <v>406</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>1079</v>
+        <v>1110</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>1081</v>
+        <v>1111</v>
       </c>
       <c r="E64" s="35" t="s">
         <v>229</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>1079</v>
+        <v>1110</v>
       </c>
       <c r="H64" s="35" t="s">
         <v>226</v>
@@ -26145,8 +26154,8 @@
         <v>232</v>
       </c>
       <c r="M64" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','现金','01','c','支付方式','现金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" si="4"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('financetheme','其他','04','c','财务主题','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -26157,10 +26166,10 @@
         <v>1078</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E65" s="35" t="s">
         <v>229</v>
@@ -26169,7 +26178,7 @@
         <v>1083</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H65" s="35" t="s">
         <v>226</v>
@@ -26188,7 +26197,7 @@
       </c>
       <c r="M65" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','支票','02','c','支付方式','支票',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','现金','01','c','支付方式','现金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -26196,22 +26205,22 @@
         <v>408</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E66" s="35" t="s">
         <v>229</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="H66" s="35" t="s">
         <v>226</v>
@@ -26230,7 +26239,7 @@
       </c>
       <c r="M66" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('purchaseorder2015','采购单番号','1','c','采购单番号','采购单番号',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('pay','支票','02','c','支付方式','支票',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -26238,22 +26247,22 @@
         <v>409</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="E67" s="35" t="s">
         <v>229</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="H67" s="35" t="s">
         <v>226</v>
@@ -26272,21 +26281,31 @@
       </c>
       <c r="M67" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('rate','税率','0.17','c','税率','税率',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('purchaseorder2015','采购单番号','1','c','采购单番号','采购单番号',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>1092</v>
+      </c>
       <c r="E68" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
+      <c r="F68" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>1091</v>
+      </c>
       <c r="H68" s="35" t="s">
         <v>226</v>
       </c>
@@ -26304,7 +26323,7 @@
       </c>
       <c r="M68" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('rate','税率','0.17','c','税率','税率',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -26335,6 +26354,38 @@
         <v>232</v>
       </c>
       <c r="M69" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="35" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I70" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J70" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K70" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L70" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M70" s="31" t="str">
         <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
@@ -26347,7 +26398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27121,11 +27172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27839,7 +27890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28457,7 +28508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29211,7 +29262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29809,7 +29860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
